--- a/RetoFinal/historial_resultados.xlsx
+++ b/RetoFinal/historial_resultados.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,7 +478,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>90000</v>
+        <v>60000</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -486,26 +486,26 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2" t="n">
-        <v>2</v>
+        <v>333</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Solar</t>
+          <t>Eólica</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1000000</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>60000</v>
+        <v>80000</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -513,10 +513,10 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>300</v>
+        <v>1</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -526,13 +526,13 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2000000</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>70000</v>
+        <v>90000</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -540,10 +540,10 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="F4" t="n">
-        <v>400</v>
+        <v>2</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -553,17 +553,17 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>9000000</v>
+        <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>40000</v>
+        <v>90000</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>No Priorizado</t>
+          <t>Sí Priorizado</t>
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
@@ -572,22 +572,622 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>8600000</v>
+        <v>1</v>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
+        <v>90000</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Sí Priorizado</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" t="n">
+        <v>2</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Solar</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>1</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="n">
+        <v>90000</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Sí Priorizado</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" t="n">
+        <v>222</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Eólica</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>2</v>
+      </c>
+      <c r="B8" t="n">
+        <v>2</v>
+      </c>
+      <c r="C8" t="n">
         <v>80000</v>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Sí Priorizado</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>2</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Solar</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>1</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="n">
+        <v>90000</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Sí Priorizado</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>2</v>
+      </c>
+      <c r="F9" t="n">
+        <v>2</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Solar</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>3</v>
+      </c>
+      <c r="B10" t="n">
+        <v>3</v>
+      </c>
+      <c r="C10" t="n">
+        <v>89000</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Sí Priorizado</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>23</v>
+      </c>
+      <c r="F10" t="n">
+        <v>3</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Solar</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>1</v>
+      </c>
+      <c r="B11" t="n">
+        <v>2</v>
+      </c>
+      <c r="C11" t="n">
+        <v>90000</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Sí Priorizado</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>1</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="n">
+        <v>90000</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Sí Priorizado</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>2</v>
+      </c>
+      <c r="F12" t="n">
+        <v>2</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Solar</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>2</v>
+      </c>
+      <c r="B13" t="n">
+        <v>80000</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>No Priorizado</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>3</v>
+      </c>
+      <c r="B14" t="n">
+        <v>3</v>
+      </c>
+      <c r="C14" t="n">
+        <v>89000</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Sí Priorizado</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>3</v>
+      </c>
+      <c r="F14" t="n">
+        <v>2</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Solar</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>1</v>
+      </c>
+      <c r="B15" t="n">
+        <v>2</v>
+      </c>
+      <c r="C15" t="n">
+        <v>78000</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Sí Priorizado</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>2</v>
+      </c>
+      <c r="F15" t="n">
+        <v>2222</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Eólica</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" t="n">
+        <v>368000</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Sí Priorizado</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>1</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" t="n">
+        <v>80000</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Sí Priorizado</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>2</v>
+      </c>
+      <c r="F17" t="n">
+        <v>2</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Solar</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>1</v>
+      </c>
+      <c r="B18" t="n">
+        <v>2</v>
+      </c>
+      <c r="C18" t="n">
+        <v>78000</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Sí Priorizado</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>2</v>
+      </c>
+      <c r="F18" t="n">
+        <v>33</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Eólica</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>2</v>
+      </c>
+      <c r="B19" t="n">
+        <v>3</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1111111</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Sí Priorizado</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>11</v>
+      </c>
+      <c r="B20" t="n">
+        <v>1</v>
+      </c>
+      <c r="C20" t="n">
+        <v>90000</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Sí Priorizado</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>2</v>
+      </c>
+      <c r="F20" t="n">
+        <v>2</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Solar</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>1</v>
+      </c>
+      <c r="B21" t="n">
+        <v>1</v>
+      </c>
+      <c r="C21" t="n">
+        <v>80000</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Sí Priorizado</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>3</v>
+      </c>
+      <c r="F21" t="n">
+        <v>3333</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Eólica</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>22</v>
+      </c>
+      <c r="B22" t="n">
+        <v>22</v>
+      </c>
+      <c r="C22" t="n">
+        <v>2</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>No Priorizado</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>2</v>
+      </c>
+      <c r="B23" t="n">
+        <v>2</v>
+      </c>
+      <c r="C23" t="n">
+        <v>76999</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Sí Priorizado</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>3222</v>
+      </c>
+      <c r="F23" t="n">
+        <v>2</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Solar</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="B24" t="n">
+        <v>2</v>
+      </c>
+      <c r="C24" t="n">
+        <v>67000</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Sí Priorizado</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>2</v>
+      </c>
+      <c r="F24" t="n">
+        <v>222</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Eólica</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="B25" t="n">
+        <v>2</v>
+      </c>
+      <c r="C25" t="n">
+        <v>78000</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Sí Priorizado</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>2</v>
+      </c>
+      <c r="F25" t="n">
+        <v>222</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Eólica</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>2500000</v>
+      </c>
+      <c r="B26" t="n">
+        <v>3</v>
+      </c>
+      <c r="C26" t="n">
+        <v>78000</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Sí Priorizado</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>100</v>
+      </c>
+      <c r="F26" t="n">
+        <v>2</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Solar</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>7500000</v>
+      </c>
+      <c r="B27" t="n">
+        <v>5</v>
+      </c>
+      <c r="C27" t="n">
+        <v>90000</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>No Priorizado</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>3700000</v>
+      </c>
+      <c r="B28" t="n">
+        <v>2</v>
+      </c>
+      <c r="C28" t="n">
+        <v>78000</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>No Priorizado</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="B29" t="n">
+        <v>1</v>
+      </c>
+      <c r="C29" t="n">
+        <v>89000</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Sí Priorizado</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>222</v>
+      </c>
+      <c r="F29" t="n">
+        <v>1211</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Solar</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="B30" t="n">
+        <v>2</v>
+      </c>
+      <c r="C30" t="n">
+        <v>78000</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Sí Priorizado</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>2</v>
+      </c>
+      <c r="F30" t="n">
+        <v>222</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Eólica</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
